--- a/src/MyTest3/excel/demo/1.xlsx
+++ b/src/MyTest3/excel/demo/1.xlsx
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1102,15 +1102,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1121,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/MyTest3/excel/demo/1.xlsx
+++ b/src/MyTest3/excel/demo/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,16 +64,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,37 +94,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -125,7 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,11 +125,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,53 +201,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +217,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,169 +295,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +422,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,30 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1060,6 +1060,29 @@
       </c>
       <c r="C4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1072,13 +1095,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1119,6 +1142,24 @@
       </c>
       <c r="C4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
